--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -142,9 +142,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,6 +150,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +437,7 @@
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -450,205 +450,205 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="39.4" customHeight="1">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>AVERAGE(F5:G5)</f>
         <v>6.5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="59.25" customHeight="1">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
         <f>AVERAGE(F6:G6)</f>
         <v>4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>AVERAGE(F7:G7)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="56.25" customHeight="1">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <f>AVERAGE(F8:G8)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="69.75" customHeight="1">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>9</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>AVERAGE(F9:G9)</f>
         <v>8.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>PRODUCT BACKLOG TAREA 1</t>
   </si>
@@ -70,24 +70,6 @@
   </si>
   <si>
     <t>Como jefe de negocio, deseo que la información se pueda visualizar en una plataforma móvil, con la finalidad de tener la información al alcance de mi mano</t>
-  </si>
-  <si>
-    <t>Nombre de la historia</t>
-  </si>
-  <si>
-    <t>Comprar entradas</t>
-  </si>
-  <si>
-    <t>Visualizar películas disponibles</t>
-  </si>
-  <si>
-    <t>Visualizar horario de cartelera</t>
-  </si>
-  <si>
-    <t>Registro de nuestros de nuestros cines</t>
-  </si>
-  <si>
-    <t>Utilizar aplicativo móvil</t>
   </si>
 </sst>
 </file>
@@ -434,22 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="13.7109375"/>
-    <col min="3" max="3" width="0" hidden="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="1026" width="11.5703125"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -460,9 +441,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10">
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -471,9 +451,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" ht="26.25" customHeight="1">
+    </row>
+    <row r="4" spans="2:9" ht="26.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,28 +460,25 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="39.4" customHeight="1">
+    <row r="5" spans="2:9" ht="39.4" customHeight="1">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -510,29 +486,26 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
       <c r="F5" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <f>AVERAGE(E5:F5)</f>
+        <v>6.5</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(F5:G5)</f>
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="59.25" customHeight="1">
+    <row r="6" spans="2:9" ht="59.25" customHeight="1">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -540,29 +513,26 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3">
+        <f>AVERAGE(E6:F6)</f>
         <v>4</v>
       </c>
       <c r="H6" s="3">
-        <f>AVERAGE(F6:G6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="57.75" customHeight="1">
+    <row r="7" spans="2:9" ht="57.75" customHeight="1">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -570,29 +540,26 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="3">
+        <f>AVERAGE(E7:F7)</f>
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(F7:G7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="56.25" customHeight="1">
+    <row r="8" spans="2:9" ht="56.25" customHeight="1">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -600,29 +567,26 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
       <c r="F8" s="3">
         <v>4</v>
       </c>
       <c r="G8" s="3">
+        <f>AVERAGE(E8:F8)</f>
         <v>4</v>
       </c>
       <c r="H8" s="3">
-        <f>AVERAGE(F8:G8)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="69.75" customHeight="1">
+    <row r="9" spans="2:9" ht="69.75" customHeight="1">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -630,31 +594,28 @@
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
+        <f>AVERAGE(E9:F9)</f>
+        <v>8.5</v>
       </c>
       <c r="H9" s="3">
-        <f>AVERAGE(F9:G9)</f>
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B2:I3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
